--- a/reports/air_raw_data/date_city_price_weigth.xlsx
+++ b/reports/air_raw_data/date_city_price_weigth.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>253350.295</v>
+        <v>287549</v>
       </c>
     </row>
     <row r="3">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>225894.4</v>
+        <v>245773</v>
       </c>
     </row>
     <row r="6">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>273938.25</v>
+        <v>307381</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>300587.14</v>
+        <v>318129</v>
       </c>
     </row>
     <row r="12">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>218939.182</v>
+        <v>233812</v>
       </c>
     </row>
     <row r="15">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>277406.21</v>
+        <v>289824</v>
       </c>
     </row>
     <row r="18">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>218395.544</v>
+        <v>235290</v>
       </c>
     </row>
     <row r="21">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>171</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>282403.02</v>
+        <v>305335</v>
       </c>
     </row>
     <row r="24">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>320247.8</v>
+        <v>353835</v>
       </c>
     </row>
     <row r="27">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>315480.625</v>
+        <v>349618</v>
       </c>
     </row>
     <row r="30">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>473293.59</v>
+        <v>528736</v>
       </c>
     </row>
     <row r="33">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>254274.99</v>
+        <v>266759</v>
       </c>
     </row>
     <row r="36">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>210</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>198463.26</v>
+        <v>211514</v>
       </c>
     </row>
     <row r="39">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>202038.5</v>
+        <v>219908</v>
       </c>
     </row>
     <row r="42">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>347066.26</v>
+        <v>363668</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>738</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="46">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>266315.33</v>
+        <v>287905</v>
       </c>
     </row>
     <row r="48">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>362754.6</v>
+        <v>380202</v>
       </c>
     </row>
     <row r="51">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>270403.97</v>
+        <v>287077</v>
       </c>
     </row>
     <row r="54">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>260300.69</v>
+        <v>280994</v>
       </c>
     </row>
     <row r="57">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>356873.61</v>
+        <v>371826</v>
       </c>
     </row>
     <row r="60">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>248268.59</v>
+        <v>259287</v>
       </c>
     </row>
     <row r="63">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>289574.75</v>
+        <v>324590</v>
       </c>
     </row>
     <row r="66">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>272740.31</v>
+        <v>294172</v>
       </c>
     </row>
     <row r="69">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>244067.12</v>
+        <v>262397</v>
       </c>
     </row>
     <row r="72">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>340403.8</v>
+        <v>362050</v>
       </c>
     </row>
     <row r="75">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1720</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="77">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>293590.94</v>
+        <v>314808</v>
       </c>
     </row>
     <row r="78">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1760</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="80">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>378119.84</v>
+        <v>404796</v>
       </c>
     </row>
     <row r="81">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
